--- a/data_participantes/Salvador Vidal Torres_20251113_180607/experimento_Salvador Vidal Torres_20251113_180607.xlsx
+++ b/data_participantes/Salvador Vidal Torres_20251113_180607/experimento_Salvador Vidal Torres_20251113_180607.xlsx
@@ -693,91 +693,91 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner, Annie’s Shells &amp; White Cheddar</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Annie’s Shells &amp; White Cheddar</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2.676443</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.676443</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-11-20T15:37:11.957908</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1763653031.957908</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-11-20T15:37:14.634351</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>1763653034.634351</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2025-11-20T15:37:14.634351</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>1763653034.634351</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2025-11-20T15:37:11.829068</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2025-11-20T15:37:37.047342</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>1763653031.829068</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1763653057.047342</v>
+      </c>
+      <c r="S2" t="n">
+        <v>25.218274</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Mac&amp;Cheese vs Annies</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Annies</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Hormel vs Velveeta</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
           <t>Velveeta</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>2.628514</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.628514</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2025-11-20T14:34:42.031247</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1763649282.031247</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2025-11-20T14:34:44.659761</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>1763649284.659761</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2025-11-20T14:34:44.659761</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>1763649284.659761</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2025-11-20T14:34:41.959572</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>2025-11-20T14:35:02.657458</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v>1763649281.959572</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1763649302.657458</v>
-      </c>
-      <c r="S2" t="n">
-        <v>20.697886</v>
-      </c>
-      <c r="T2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>Annies vs Velveeta</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Mac&amp;Cheese vs Hormel</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Hormel</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Velveeta vs Hormel</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Velveeta</t>
+          <t>Annies</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -797,17 +797,19 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner, Annie’s Shells &amp; White Cheddar</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr"/>
+          <t>Annie’s Shells &amp; White Cheddar</t>
+        </is>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.554</v>
+      </c>
       <c r="AH2" t="inlineStr">
         <is>
           <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
@@ -817,7 +819,7 @@
         <v>0.632</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.628514</v>
+        <v>2.676443</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
@@ -826,7 +828,7 @@
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>{"Annie’s Shells &amp; White Cheddar_pack": [0.0, 0.0, 0.5, 0.6], "Annie’s Shells &amp; White Cheddar_claim": [0.0, 0.6, 0.5, 1.0], "Velveeta_pack": [0.5, 0.0, 1.0, 0.6], "Velveeta_claim": [0.5, 0.6, 1.0, 1.0]}</t>
+          <t>{"Kraft Macaroni &amp; Cheese Dinner_pack": [0.0, 0.0, 0.5, 0.6], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.0, 0.6, 0.5, 1.0], "Annie’s Shells &amp; White Cheddar_pack": [0.5, 0.0, 1.0, 0.6], "Annie’s Shells &amp; White Cheddar_claim": [0.5, 0.6, 1.0, 1.0]}</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr"/>
@@ -858,91 +860,91 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kraft Macaroni &amp; Cheese Dinner, Amy’s Macaroni &amp; Cheese (frozen)</t>
+          <t>Amy’s Macaroni &amp; Cheese (frozen), Velveeta</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
+          <t>Velveeta</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.387582</v>
+        <v>1.947167</v>
       </c>
       <c r="H3" t="n">
-        <v>1.387582</v>
+        <v>1.947167</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-11-20T14:34:44.659761</t>
+          <t>2025-11-20T15:37:14.634351</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1763649284.659761</v>
+        <v>1763653034.634351</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-11-20T14:34:46.047343</t>
+          <t>2025-11-20T15:37:16.581518</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1763649286.047343</v>
+        <v>1763653036.581518</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2025-11-20T14:34:46.047343</t>
+          <t>2025-11-20T15:37:16.581518</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1763649286.047343</v>
+        <v>1763653036.581518</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-11-20T14:34:41.959572</t>
+          <t>2025-11-20T15:37:11.829068</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-11-20T14:35:02.657458</t>
+          <t>2025-11-20T15:37:37.047342</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1763649281.959572</v>
+        <v>1763653031.829068</v>
       </c>
       <c r="R3" t="n">
-        <v>1763649302.657458</v>
+        <v>1763653057.047342</v>
       </c>
       <c r="S3" t="n">
-        <v>20.697886</v>
+        <v>25.218274</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>Mac&amp;Cheese vs Annies</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Annies</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Hormel vs Velveeta</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Velveeta</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
           <t>Annies vs Velveeta</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Mac&amp;Cheese vs Hormel</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Hormel</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Velveeta vs Hormel</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Velveeta</t>
+          <t>Annies</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -962,19 +964,17 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Kraft Macaroni &amp; Cheese Dinner, Amy’s Macaroni &amp; Cheese (frozen)</t>
+          <t>Amy’s Macaroni &amp; Cheese (frozen), Velveeta</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
-        </is>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.632</v>
-      </c>
+          <t>Velveeta</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
@@ -985,7 +985,7 @@
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="n">
-        <v>1.387582</v>
+        <v>1.947167</v>
       </c>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="n">
@@ -997,7 +997,7 @@
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>{"Kraft Macaroni &amp; Cheese Dinner_pack": [0.0, 0.0, 0.5, 0.6], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.0, 0.6, 0.5, 1.0], "Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.5, 0.0, 1.0, 0.6], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.5, 0.6, 1.0, 1.0], "Amy’s Macaroni &amp; Cheese (frozen)_smartcore": [0.7, 0.9, 0.8, 1.0]}</t>
+          <t>{"Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.0, 0.0, 0.5, 0.6], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.0, 0.6, 0.5, 1.0], "Amy’s Macaroni &amp; Cheese (frozen)_smartcore": [0.2, 0.9, 0.3, 1.0], "Velveeta_pack": [0.5, 0.0, 1.0, 0.6], "Velveeta_claim": [0.5, 0.6, 1.0, 1.0]}</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr"/>
@@ -1029,91 +1029,91 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Velveeta, Amy’s Macaroni &amp; Cheese (frozen)</t>
+          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Annie’s Shells &amp; White Cheddar</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3.222236</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.222236</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-11-20T15:37:16.581518</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1763653036.581518</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-11-20T15:37:19.803754</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1763653039.803754</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2025-11-20T15:37:19.803754</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>1763653039.803754</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2025-11-20T15:37:11.829068</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2025-11-20T15:37:37.047342</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>1763653031.829068</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1763653057.047342</v>
+      </c>
+      <c r="S4" t="n">
+        <v>25.218274</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Mac&amp;Cheese vs Annies</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Annies</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Hormel vs Velveeta</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
           <t>Velveeta</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>1.630759</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.630759</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-11-20T14:34:46.047343</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1763649286.047343</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2025-11-20T14:34:47.678102</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1763649287.678102</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2025-11-20T14:34:47.678102</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>1763649287.678102</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>2025-11-20T14:34:41.959572</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>2025-11-20T14:35:02.657458</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>1763649281.959572</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1763649302.657458</v>
-      </c>
-      <c r="S4" t="n">
-        <v>20.697886</v>
-      </c>
-      <c r="T4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>Annies vs Velveeta</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Mac&amp;Cheese vs Hormel</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Hormel</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Velveeta vs Hormel</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Velveeta</t>
+          <t>Annies</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1133,17 +1133,19 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Velveeta, Amy’s Macaroni &amp; Cheese (frozen)</t>
+          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr"/>
+          <t>Annie’s Shells &amp; White Cheddar</t>
+        </is>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.554</v>
+      </c>
       <c r="AH4" t="inlineStr">
         <is>
           <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
@@ -1155,18 +1157,14 @@
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
-        <v>1.630759</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
+        <v>3.222236</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>{"Velveeta_pack": [0.0, 0.0, 0.5, 0.6], "Velveeta_claim": [0.0, 0.6, 0.5, 1.0], "Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.5, 0.0, 1.0, 0.6], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.5, 0.6, 1.0, 1.0], "Amy’s Macaroni &amp; Cheese (frozen)_smartcore": [0.7, 0.9, 0.8, 1.0]}</t>
+          <t>{"Annie’s Shells &amp; White Cheddar_pack": [0.0, 0.0, 0.5, 0.6], "Annie’s Shells &amp; White Cheddar_claim": [0.0, 0.6, 0.5, 1.0], "Velveeta_pack": [0.5, 0.0, 1.0, 0.6], "Velveeta_claim": [0.5, 0.6, 1.0, 1.0]}</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr"/>
@@ -1198,7 +1196,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nongshim Shin Ramyun, Maruchan, Nongshim Neoguri Spicy Seafood, Nissin Chow Mein Teriyaki Beef</t>
+          <t>Maruchan, Nongshim Neoguri Spicy Seafood, Nissin Chow Mein Teriyaki Beef, Nongshim Shin Ramyun</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1207,53 +1205,53 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.251131</v>
+        <v>2.153643</v>
       </c>
       <c r="H5" t="n">
-        <v>3.577252</v>
+        <v>4.209375</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-11-20T14:34:48.643433</t>
+          <t>2025-11-20T15:37:21.048731</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1763649288.643433</v>
+        <v>1763653041.048731</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-11-20T14:34:50.894564</t>
+          <t>2025-11-20T15:37:23.202374</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1763649290.894564</v>
+        <v>1763653043.202374</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-11-20T14:34:52.220685</t>
+          <t>2025-11-20T15:37:25.258106</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1763649292.220685</v>
+        <v>1763653045.258106</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-11-20T14:34:41.959572</t>
+          <t>2025-11-20T15:37:11.829068</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-11-20T14:35:02.657458</t>
+          <t>2025-11-20T15:37:37.047342</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>1763649281.959572</v>
+        <v>1763653031.829068</v>
       </c>
       <c r="R5" t="n">
-        <v>1763649302.657458</v>
+        <v>1763653057.047342</v>
       </c>
       <c r="S5" t="n">
-        <v>20.697886</v>
+        <v>25.218274</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -1278,7 +1276,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Nongshim Shin Ramyun, Maruchan, Nongshim Neoguri Spicy Seafood, Nissin Chow Mein Teriyaki Beef</t>
+          <t>Maruchan, Nongshim Neoguri Spicy Seafood, Nissin Chow Mein Teriyaki Beef, Nongshim Shin Ramyun</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr"/>
@@ -1311,7 +1309,7 @@
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>{"Nongshim Shin Ramyun_pack": [0.0, 0.0, 0.5, 0.4], "Nongshim Shin Ramyun_claim": [0.0, 0.4, 0.5, 0.8], "Maruchan_pack": [0.5, 0.0, 1.0, 0.4], "Maruchan_claim": [0.5, 0.4, 1.0, 0.8], "Nongshim Neoguri Spicy Seafood_pack": [0.0, 0.5, 0.5, 0.9], "Nongshim Neoguri Spicy Seafood_claim": [0.0, 0.9, 0.5, 1.0], "Nongshim Neoguri Spicy Seafood_smartcore": [0.2, 0.95, 0.3, 1.0], "Nissin Chow Mein Teriyaki Beef_pack": [0.5, 0.5, 1.0, 0.9], "Nissin Chow Mein Teriyaki Beef_claim": [0.5, 0.9, 1.0, 1.0]}</t>
+          <t>{"Maruchan_pack": [0.0, 0.0, 0.5, 0.4], "Maruchan_claim": [0.0, 0.4, 0.5, 0.8], "Nongshim Neoguri Spicy Seafood_pack": [0.5, 0.0, 1.0, 0.4], "Nongshim Neoguri Spicy Seafood_claim": [0.5, 0.4, 1.0, 0.8], "Nongshim Neoguri Spicy Seafood_smartcore": [0.7, 0.75, 0.8, 0.85], "Nissin Chow Mein Teriyaki Beef_pack": [0.0, 0.5, 0.5, 0.9], "Nissin Chow Mein Teriyaki Beef_claim": [0.0, 0.9, 0.5, 1.0], "Nongshim Shin Ramyun_pack": [0.5, 0.5, 1.0, 0.9], "Nongshim Shin Ramyun_claim": [0.5, 0.9, 1.0, 1.0]}</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr"/>
@@ -1352,53 +1350,53 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>9.025036999999999</v>
+        <v>8.534520000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>10.357428</v>
+        <v>7.502632</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-11-20T14:34:52.299900</t>
+          <t>2025-11-20T15:37:29.544539</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1763649292.2999</v>
+        <v>1763653049.544539</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-11-20T14:35:01.323935</t>
+          <t>2025-11-20T15:37:33.886660</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1763649301.323935</v>
+        <v>1763653053.88666</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2025-11-20T14:35:02.657328</t>
+          <t>2025-11-20T15:37:37.047171</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1763649302.657328</v>
+        <v>1763653057.047171</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-11-20T14:34:41.959572</t>
+          <t>2025-11-20T15:37:11.829068</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2025-11-20T14:35:02.657458</t>
+          <t>2025-11-20T15:37:37.047342</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>1763649281.959572</v>
+        <v>1763653031.829068</v>
       </c>
       <c r="R6" t="n">
-        <v>1763649302.657458</v>
+        <v>1763653057.047342</v>
       </c>
       <c r="S6" t="n">
-        <v>20.697886</v>
+        <v>25.218274</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -1461,23 +1459,23 @@
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 1.55, "JackLinks": 1.828, "RedKidneyBeansCurry": 2.175, "TunaPasta": 4.336}</t>
+          <t>{"ChickenSalad": 0.936, "JackLinks": 2.602, "RedKidneyBeansCurry": 2.116, "TunaPasta": 5.558}</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 1, "JackLinks": 2, "RedKidneyBeansCurry": 2, "TunaPasta": 2}</t>
+          <t>{"ChickenSalad": 1, "JackLinks": 2, "RedKidneyBeansCurry": 1, "TunaPasta": 2}</t>
         </is>
       </c>
       <c r="AS6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>[{"timestamp": "2025-11-20T14:34:52.299900", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-11-20T14:34:54.223352", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-11-20T14:34:54.223352", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-11-20T14:34:54.299868", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-11-20T14:34:55.561310", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-11-20T14:34:55.561310", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-11-20T14:34:55.645303", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-11-20T14:34:56.580978", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-11-20T14:34:56.580978", "event": "next", "image": "JackLinks"}, {"timestamp": "2025-11-20T14:34:56.664761", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-11-20T14:34:58.215129", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-11-20T14:34:58.215129", "event": "prev", "image": "ChickenSalad"}, {"timestamp": "2025-11-20T14:34:58.292951", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-11-20T14:34:59.185492", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-11-20T14:34:59.185492", "event": "prev", "image": "JackLinks"}, {"timestamp": "2025-11-20T14:34:59.254568", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-11-20T14:35:00.167798", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-11-20T14:35:00.167798", "event": "prev", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-11-20T14:35:00.245241", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-11-20T14:35:02.657328", "event": "finalize", "image": "TunaPasta"}]</t>
+          <t>[{"timestamp": "2025-11-20T15:37:25.353739", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-11-20T15:37:27.469659", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-11-20T15:37:27.469659", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-11-20T15:37:27.582493", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-11-20T15:37:28.518660", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-11-20T15:37:28.518660", "event": "next", "image": "ChickenSalad"}, {"timestamp": "2025-11-20T15:37:28.614779", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-11-20T15:37:29.461828", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-11-20T15:37:29.461828", "event": "next", "image": "JackLinks"}, {"timestamp": "2025-11-20T15:37:29.544539", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-11-20T15:37:31.119781", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-11-20T15:37:31.119781", "event": "prev", "image": "TunaPasta"}, {"timestamp": "2025-11-20T15:37:31.211403", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-11-20T15:37:32.965920", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-11-20T15:37:32.965920", "event": "next", "image": "JackLinks"}, {"timestamp": "2025-11-20T15:37:33.064243", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-11-20T15:37:37.047171", "event": "finalize", "image": "TunaPasta"}]</t>
         </is>
       </c>
     </row>

--- a/data_participantes/Salvador Vidal Torres_20251113_180607/experimento_Salvador Vidal Torres_20251113_180607.xlsx
+++ b/data_participantes/Salvador Vidal Torres_20251113_180607/experimento_Salvador Vidal Torres_20251113_180607.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Con SmartScore</t>
+          <t>Sin SmartScore</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -693,93 +693,93 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kraft Macaroni &amp; Cheese Dinner, Annie’s Shells &amp; White Cheddar</t>
+          <t>Velveeta, Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar</t>
+          <t>Velveeta</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.676443</v>
+        <v>11.559773</v>
       </c>
       <c r="H2" t="n">
-        <v>2.676443</v>
+        <v>11.559773</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:11.957908</t>
+          <t>2025-12-01T18:17:41.258906</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1763653031.957908</v>
+        <v>1764613061.258906</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:14.634351</t>
+          <t>2025-12-01T18:17:52.818679</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1763653034.634351</v>
+        <v>1764613072.818679</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:14.634351</t>
+          <t>2025-12-01T18:17:52.818679</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1763653034.634351</v>
+        <v>1764613072.818679</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:11.829068</t>
+          <t>2025-12-01T18:17:41.160736</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:37.047342</t>
+          <t>2025-12-01T18:19:36.743871</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1763653031.829068</v>
+        <v>1764613061.160736</v>
       </c>
       <c r="R2" t="n">
-        <v>1763653057.047342</v>
+        <v>1764613176.743871</v>
       </c>
       <c r="S2" t="n">
-        <v>25.218274</v>
+        <v>115.583135</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Mac&amp;Cheese vs Annies</t>
+          <t>Velveeta vs Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
+          <t>Velveeta</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Hormel vs Annies</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
           <t>Annies</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Hormel vs Velveeta</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Velveeta vs Annies</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>Velveeta</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Annies vs Velveeta</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Annies</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
           <t>AB-2col</t>
@@ -797,19 +797,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Kraft Macaroni &amp; Cheese Dinner, Annie’s Shells &amp; White Cheddar</t>
+          <t>Velveeta, Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar</t>
-        </is>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.554</v>
-      </c>
+          <t>Velveeta</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr">
         <is>
           <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
@@ -819,7 +817,7 @@
         <v>0.632</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.676443</v>
+        <v>11.559773</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
@@ -828,7 +826,7 @@
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>{"Kraft Macaroni &amp; Cheese Dinner_pack": [0.0, 0.0, 0.5, 0.6], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.0, 0.6, 0.5, 1.0], "Annie’s Shells &amp; White Cheddar_pack": [0.5, 0.0, 1.0, 0.6], "Annie’s Shells &amp; White Cheddar_claim": [0.5, 0.6, 1.0, 1.0]}</t>
+          <t>{"Velveeta_pack": [0.0, 0.0, 0.5, 0.6], "Velveeta_claim": [0.0, 0.6, 0.5, 1.0], "Kraft Macaroni &amp; Cheese Dinner_pack": [0.5, 0.0, 1.0, 0.6], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.5, 0.6, 1.0, 1.0]}</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr"/>
@@ -850,7 +848,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Con SmartScore</t>
+          <t>Sin SmartScore</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -860,93 +858,93 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen), Velveeta</t>
+          <t>Amy’s Macaroni &amp; Cheese (frozen), Annie’s Shells &amp; White Cheddar</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Annie’s Shells &amp; White Cheddar</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>21.232117</v>
+      </c>
+      <c r="H3" t="n">
+        <v>21.232117</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-12-01T18:17:52.818679</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1764613072.818679</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-12-01T18:18:14.050796</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1764613094.050796</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2025-12-01T18:18:14.050796</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>1764613094.050796</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2025-12-01T18:17:41.160736</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2025-12-01T18:19:36.743871</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>1764613061.160736</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1764613176.743871</v>
+      </c>
+      <c r="S3" t="n">
+        <v>115.583135</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Velveeta vs Mac&amp;Cheese</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>Velveeta</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>1.947167</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.947167</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2025-11-20T15:37:14.634351</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1763653034.634351</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2025-11-20T15:37:16.581518</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1763653036.581518</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2025-11-20T15:37:16.581518</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>1763653036.581518</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2025-11-20T15:37:11.829068</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>2025-11-20T15:37:37.047342</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>1763653031.829068</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1763653057.047342</v>
-      </c>
-      <c r="S3" t="n">
-        <v>25.218274</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Mac&amp;Cheese vs Annies</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Hormel vs Annies</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>Annies</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Hormel vs Velveeta</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Velveeta vs Annies</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>Velveeta</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Annies vs Velveeta</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Annies</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
           <t>AB-2col</t>
@@ -964,17 +962,19 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen), Velveeta</t>
+          <t>Amy’s Macaroni &amp; Cheese (frozen), Annie’s Shells &amp; White Cheddar</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr"/>
+          <t>Annie’s Shells &amp; White Cheddar</t>
+        </is>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.554</v>
+      </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
@@ -985,19 +985,15 @@
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="n">
-        <v>1.947167</v>
+        <v>21.232117</v>
       </c>
       <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>{"Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.0, 0.0, 0.5, 0.6], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.0, 0.6, 0.5, 1.0], "Amy’s Macaroni &amp; Cheese (frozen)_smartcore": [0.2, 0.9, 0.3, 1.0], "Velveeta_pack": [0.5, 0.0, 1.0, 0.6], "Velveeta_claim": [0.5, 0.6, 1.0, 1.0]}</t>
+          <t>{"Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.0, 0.0, 0.5, 0.6], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.0, 0.6, 0.5, 1.0], "Annie’s Shells &amp; White Cheddar_pack": [0.5, 0.0, 1.0, 0.6], "Annie’s Shells &amp; White Cheddar_claim": [0.5, 0.6, 1.0, 1.0]}</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr"/>
@@ -1019,7 +1015,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Con SmartScore</t>
+          <t>Sin SmartScore</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1029,93 +1025,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
+          <t>Velveeta, Annie’s Shells &amp; White Cheddar</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar</t>
+          <t>Velveeta</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.222236</v>
+        <v>16.788498</v>
       </c>
       <c r="H4" t="n">
-        <v>3.222236</v>
+        <v>16.788498</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:16.581518</t>
+          <t>2025-12-01T18:18:14.050796</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1763653036.581518</v>
+        <v>1764613094.050796</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:19.803754</t>
+          <t>2025-12-01T18:18:30.839294</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1763653039.803754</v>
+        <v>1764613110.839294</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:19.803754</t>
+          <t>2025-12-01T18:18:30.839294</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1763653039.803754</v>
+        <v>1764613110.839294</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:11.829068</t>
+          <t>2025-12-01T18:17:41.160736</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:37.047342</t>
+          <t>2025-12-01T18:19:36.743871</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1763653031.829068</v>
+        <v>1764613061.160736</v>
       </c>
       <c r="R4" t="n">
-        <v>1763653057.047342</v>
+        <v>1764613176.743871</v>
       </c>
       <c r="S4" t="n">
-        <v>25.218274</v>
+        <v>115.583135</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Mac&amp;Cheese vs Annies</t>
+          <t>Velveeta vs Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
+          <t>Velveeta</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Hormel vs Annies</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
           <t>Annies</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Hormel vs Velveeta</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Velveeta vs Annies</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>Velveeta</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Annies vs Velveeta</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Annies</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>AB-2col</t>
@@ -1133,19 +1129,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
+          <t>Velveeta, Annie’s Shells &amp; White Cheddar</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar</t>
-        </is>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.554</v>
-      </c>
+          <t>Velveeta</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr">
         <is>
           <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
@@ -1157,14 +1151,14 @@
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
-        <v>3.222236</v>
+        <v>16.788498</v>
       </c>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>{"Annie’s Shells &amp; White Cheddar_pack": [0.0, 0.0, 0.5, 0.6], "Annie’s Shells &amp; White Cheddar_claim": [0.0, 0.6, 0.5, 1.0], "Velveeta_pack": [0.5, 0.0, 1.0, 0.6], "Velveeta_claim": [0.5, 0.6, 1.0, 1.0]}</t>
+          <t>{"Velveeta_pack": [0.0, 0.0, 0.5, 0.6], "Velveeta_claim": [0.0, 0.6, 0.5, 1.0], "Annie’s Shells &amp; White Cheddar_pack": [0.5, 0.0, 1.0, 0.6], "Annie’s Shells &amp; White Cheddar_claim": [0.5, 0.6, 1.0, 1.0]}</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr"/>
@@ -1186,7 +1180,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Con SmartScore</t>
+          <t>Sin SmartScore</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1196,7 +1190,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Maruchan, Nongshim Neoguri Spicy Seafood, Nissin Chow Mein Teriyaki Beef, Nongshim Shin Ramyun</t>
+          <t>Nongshim Neoguri Spicy Seafood, Nongshim Shin Ramyun, Nissin Chow Mein Teriyaki Beef, Maruchan</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1205,53 +1199,53 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.153643</v>
+        <v>20.757866</v>
       </c>
       <c r="H5" t="n">
-        <v>4.209375</v>
+        <v>22.405703</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:21.048731</t>
+          <t>2025-12-01T18:18:32.274301</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1763653041.048731</v>
+        <v>1764613112.274301</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:23.202374</t>
+          <t>2025-12-01T18:18:53.032167</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1763653043.202374</v>
+        <v>1764613133.032167</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:25.258106</t>
+          <t>2025-12-01T18:18:54.680004</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1763653045.258106</v>
+        <v>1764613134.680004</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:11.829068</t>
+          <t>2025-12-01T18:17:41.160736</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:37.047342</t>
+          <t>2025-12-01T18:19:36.743871</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>1763653031.829068</v>
+        <v>1764613061.160736</v>
       </c>
       <c r="R5" t="n">
-        <v>1763653057.047342</v>
+        <v>1764613176.743871</v>
       </c>
       <c r="S5" t="n">
-        <v>25.218274</v>
+        <v>115.583135</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -1276,7 +1270,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Maruchan, Nongshim Neoguri Spicy Seafood, Nissin Chow Mein Teriyaki Beef, Nongshim Shin Ramyun</t>
+          <t>Nongshim Neoguri Spicy Seafood, Nongshim Shin Ramyun, Nissin Chow Mein Teriyaki Beef, Maruchan</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr"/>
@@ -1300,16 +1294,12 @@
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>{"Maruchan_pack": [0.0, 0.0, 0.5, 0.4], "Maruchan_claim": [0.0, 0.4, 0.5, 0.8], "Nongshim Neoguri Spicy Seafood_pack": [0.5, 0.0, 1.0, 0.4], "Nongshim Neoguri Spicy Seafood_claim": [0.5, 0.4, 1.0, 0.8], "Nongshim Neoguri Spicy Seafood_smartcore": [0.7, 0.75, 0.8, 0.85], "Nissin Chow Mein Teriyaki Beef_pack": [0.0, 0.5, 0.5, 0.9], "Nissin Chow Mein Teriyaki Beef_claim": [0.0, 0.9, 0.5, 1.0], "Nongshim Shin Ramyun_pack": [0.5, 0.5, 1.0, 0.9], "Nongshim Shin Ramyun_claim": [0.5, 0.9, 1.0, 1.0]}</t>
+          <t>{"Nongshim Neoguri Spicy Seafood_pack": [0.0, 0.0, 0.5, 0.4], "Nongshim Neoguri Spicy Seafood_claim": [0.0, 0.4, 0.5, 0.8], "Nongshim Shin Ramyun_pack": [0.5, 0.0, 1.0, 0.4], "Nongshim Shin Ramyun_claim": [0.5, 0.4, 1.0, 0.8], "Nissin Chow Mein Teriyaki Beef_pack": [0.0, 0.5, 0.5, 0.9], "Nissin Chow Mein Teriyaki Beef_claim": [0.0, 0.9, 0.5, 1.0], "Maruchan_pack": [0.5, 0.5, 1.0, 0.9], "Maruchan_claim": [0.5, 0.9, 1.0, 1.0]}</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr"/>
@@ -1331,7 +1321,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Con SmartScore</t>
+          <t>Sin SmartScore</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1341,62 +1331,62 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Wild Planet Wild Tuna Pasta Salad</t>
+          <t>JackLinks</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Wild Planet Wild Tuna Pasta Salad</t>
+          <t>JackLinks</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>8.534520000000001</v>
+        <v>40.389108</v>
       </c>
       <c r="H6" t="n">
-        <v>7.502632</v>
+        <v>22.674121</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:29.544539</t>
+          <t>2025-12-01T18:19:14.069618</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1763653049.544539</v>
+        <v>1764613154.069618</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:33.886660</t>
+          <t>2025-12-01T18:19:35.172510</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1763653053.88666</v>
+        <v>1764613175.17251</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:37.047171</t>
+          <t>2025-12-01T18:19:36.743739</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1763653057.047171</v>
+        <v>1764613176.743739</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:11.829068</t>
+          <t>2025-12-01T18:17:41.160736</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2025-11-20T15:37:37.047342</t>
+          <t>2025-12-01T18:19:36.743871</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>1763653031.829068</v>
+        <v>1764613061.160736</v>
       </c>
       <c r="R6" t="n">
-        <v>1763653057.047342</v>
+        <v>1764613176.743871</v>
       </c>
       <c r="S6" t="n">
-        <v>25.218274</v>
+        <v>115.583135</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -1421,19 +1411,17 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Wild Planet Wild Tuna Pasta Salad</t>
+          <t>JackLinks</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>Wild Planet Wild Tuna Pasta Salad</t>
-        </is>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.678</v>
-      </c>
+          <t>JackLinks</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr">
         <is>
           <t>Wild Planet Wild Tuna Pasta Salad</t>
@@ -1445,37 +1433,33 @@
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>{"Seq-1": {"Wild Planet Wild Tuna Pasta Salad_pack": [0.2, 0.0, 0.8, 0.7], "Wild Planet Wild Tuna Pasta Salad_claim": [0.8, 0.0, 1.0, 1.0], "Wild Planet Wild Tuna Pasta Salad_nutri": [0.0, 0.0, 0.2, 1.0], "Wild Planet Wild Tuna Pasta Salad_smartcore": [0.4, 0.8, 0.6, 0.95]}}</t>
+          <t>{"Seq-1": {"JackLinks_pack": [0.2, 0.0, 0.8, 0.7], "JackLinks_claim": [0.8, 0.0, 1.0, 1.0], "JackLinks_nutri": [0.0, 0.0, 0.2, 1.0]}}</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 0.936, "JackLinks": 2.602, "RedKidneyBeansCurry": 2.116, "TunaPasta": 5.558}</t>
+          <t>{"ChickenSalad": 6.103, "JackLinks": 10.623, "RedKidneyBeansCurry": 12.059, "TunaPasta": 12.355}</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 1, "JackLinks": 2, "RedKidneyBeansCurry": 1, "TunaPasta": 2}</t>
+          <t>{"ChickenSalad": 1, "JackLinks": 3, "RedKidneyBeansCurry": 2, "TunaPasta": 3}</t>
         </is>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>[{"timestamp": "2025-11-20T15:37:25.353739", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-11-20T15:37:27.469659", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-11-20T15:37:27.469659", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-11-20T15:37:27.582493", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-11-20T15:37:28.518660", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-11-20T15:37:28.518660", "event": "next", "image": "ChickenSalad"}, {"timestamp": "2025-11-20T15:37:28.614779", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-11-20T15:37:29.461828", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-11-20T15:37:29.461828", "event": "next", "image": "JackLinks"}, {"timestamp": "2025-11-20T15:37:29.544539", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-11-20T15:37:31.119781", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-11-20T15:37:31.119781", "event": "prev", "image": "TunaPasta"}, {"timestamp": "2025-11-20T15:37:31.211403", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-11-20T15:37:32.965920", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-11-20T15:37:32.965920", "event": "next", "image": "JackLinks"}, {"timestamp": "2025-11-20T15:37:33.064243", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-11-20T15:37:37.047171", "event": "finalize", "image": "TunaPasta"}]</t>
+          <t>[{"timestamp": "2025-12-01T18:18:54.784515", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:19:04.742485", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:19:04.742485", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:19:04.823852", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:19:13.943505", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:19:13.943505", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:19:14.069618", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:19:19.458469", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:19:19.458469", "event": "next", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:19:19.567629", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-01T18:19:25.670849", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-01T18:19:25.670849", "event": "prev", "image": "ChickenSalad"}, {"timestamp": "2025-12-01T18:19:25.770649", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:19:27.393624", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:19:27.393624", "event": "prev", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:19:27.509754", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:19:28.945708", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:19:28.945708", "event": "prev", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:19:29.041402", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:19:31.142727", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:19:31.142727", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:19:31.238148", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:19:33.037200", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:19:33.037200", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:19:33.132750", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:19:36.743739", "event": "finalize", "image": "JackLinks"}]</t>
         </is>
       </c>
     </row>

--- a/data_participantes/Salvador Vidal Torres_20251113_180607/experimento_Salvador Vidal Torres_20251113_180607.xlsx
+++ b/data_participantes/Salvador Vidal Torres_20251113_180607/experimento_Salvador Vidal Torres_20251113_180607.xlsx
@@ -693,93 +693,93 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Velveeta, Kraft Macaroni &amp; Cheese Dinner</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner, Annie’s Shells &amp; White Cheddar</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Annie’s Shells &amp; White Cheddar</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>12.74102</v>
+      </c>
+      <c r="H2" t="n">
+        <v>12.74102</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-12-01T18:20:52.629620</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1764613252.62962</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-12-01T18:21:05.370640</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>1764613265.37064</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2025-12-01T18:21:05.370640</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>1764613265.37064</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2025-12-01T18:20:52.530813</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2025-12-01T18:22:24.029919</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>1764613252.530813</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1764613344.029919</v>
+      </c>
+      <c r="S2" t="n">
+        <v>91.499106</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Mac&amp;Cheese vs Annies</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Annies</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Hormel vs Velveeta</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
           <t>Velveeta</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>11.559773</v>
-      </c>
-      <c r="H2" t="n">
-        <v>11.559773</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2025-12-01T18:17:41.258906</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1764613061.258906</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2025-12-01T18:17:52.818679</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>1764613072.818679</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2025-12-01T18:17:52.818679</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>1764613072.818679</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2025-12-01T18:17:41.160736</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>2025-12-01T18:19:36.743871</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v>1764613061.160736</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1764613176.743871</v>
-      </c>
-      <c r="S2" t="n">
-        <v>115.583135</v>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Velveeta vs Mac&amp;Cheese</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Hormel vs Annies</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Annies vs Velveeta</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>Annies</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Velveeta vs Annies</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
           <t>AB-2col</t>
@@ -797,17 +797,19 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Velveeta, Kraft Macaroni &amp; Cheese Dinner</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner, Annie’s Shells &amp; White Cheddar</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr"/>
+          <t>Annie’s Shells &amp; White Cheddar</t>
+        </is>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.554</v>
+      </c>
       <c r="AH2" t="inlineStr">
         <is>
           <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
@@ -817,7 +819,7 @@
         <v>0.632</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11.559773</v>
+        <v>12.74102</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
@@ -826,7 +828,7 @@
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>{"Velveeta_pack": [0.0, 0.0, 0.5, 0.6], "Velveeta_claim": [0.0, 0.6, 0.5, 1.0], "Kraft Macaroni &amp; Cheese Dinner_pack": [0.5, 0.0, 1.0, 0.6], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.5, 0.6, 1.0, 1.0]}</t>
+          <t>{"Kraft Macaroni &amp; Cheese Dinner_pack": [0.0, 0.0, 0.5, 0.6], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.0, 0.6, 0.5, 1.0], "Annie’s Shells &amp; White Cheddar_pack": [0.5, 0.0, 1.0, 0.6], "Annie’s Shells &amp; White Cheddar_claim": [0.5, 0.6, 1.0, 1.0]}</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr"/>
@@ -858,93 +860,93 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen), Annie’s Shells &amp; White Cheddar</t>
+          <t>Amy’s Macaroni &amp; Cheese (frozen), Velveeta</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar</t>
+          <t>Velveeta</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>21.232117</v>
+        <v>7.480187</v>
       </c>
       <c r="H3" t="n">
-        <v>21.232117</v>
+        <v>7.480187</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-12-01T18:17:52.818679</t>
+          <t>2025-12-01T18:21:05.370640</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1764613072.818679</v>
+        <v>1764613265.37064</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-12-01T18:18:14.050796</t>
+          <t>2025-12-01T18:21:12.850827</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1764613094.050796</v>
+        <v>1764613272.850827</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2025-12-01T18:18:14.050796</t>
+          <t>2025-12-01T18:21:12.850827</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1764613094.050796</v>
+        <v>1764613272.850827</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-12-01T18:17:41.160736</t>
+          <t>2025-12-01T18:20:52.530813</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-12-01T18:19:36.743871</t>
+          <t>2025-12-01T18:22:24.029919</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1764613061.160736</v>
+        <v>1764613252.530813</v>
       </c>
       <c r="R3" t="n">
-        <v>1764613176.743871</v>
+        <v>1764613344.029919</v>
       </c>
       <c r="S3" t="n">
-        <v>115.583135</v>
+        <v>91.499106</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Velveeta vs Mac&amp;Cheese</t>
+          <t>Mac&amp;Cheese vs Annies</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
+          <t>Annies</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Hormel vs Velveeta</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
           <t>Velveeta</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Hormel vs Annies</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Annies vs Velveeta</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>Annies</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Velveeta vs Annies</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
           <t>AB-2col</t>
@@ -962,19 +964,17 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen), Annie’s Shells &amp; White Cheddar</t>
+          <t>Amy’s Macaroni &amp; Cheese (frozen), Velveeta</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar</t>
-        </is>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.554</v>
-      </c>
+          <t>Velveeta</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
@@ -985,7 +985,7 @@
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="n">
-        <v>21.232117</v>
+        <v>7.480187</v>
       </c>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
@@ -993,7 +993,7 @@
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>{"Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.0, 0.0, 0.5, 0.6], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.0, 0.6, 0.5, 1.0], "Annie’s Shells &amp; White Cheddar_pack": [0.5, 0.0, 1.0, 0.6], "Annie’s Shells &amp; White Cheddar_claim": [0.5, 0.6, 1.0, 1.0]}</t>
+          <t>{"Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.0, 0.0, 0.5, 0.6], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.0, 0.6, 0.5, 1.0], "Velveeta_pack": [0.5, 0.0, 1.0, 0.6], "Velveeta_claim": [0.5, 0.6, 1.0, 1.0]}</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr"/>
@@ -1025,93 +1025,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Velveeta, Annie’s Shells &amp; White Cheddar</t>
+          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Annie’s Shells &amp; White Cheddar</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>10.301054</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10.301054</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-12-01T18:21:12.850827</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1764613272.850827</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-12-01T18:21:23.151881</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1764613283.151881</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2025-12-01T18:21:23.151881</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>1764613283.151881</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2025-12-01T18:20:52.530813</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2025-12-01T18:22:24.029919</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>1764613252.530813</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1764613344.029919</v>
+      </c>
+      <c r="S4" t="n">
+        <v>91.499106</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Mac&amp;Cheese vs Annies</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Annies</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Hormel vs Velveeta</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
           <t>Velveeta</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>16.788498</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16.788498</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-12-01T18:18:14.050796</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1764613094.050796</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2025-12-01T18:18:30.839294</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1764613110.839294</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2025-12-01T18:18:30.839294</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>1764613110.839294</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>2025-12-01T18:17:41.160736</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>2025-12-01T18:19:36.743871</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>1764613061.160736</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1764613176.743871</v>
-      </c>
-      <c r="S4" t="n">
-        <v>115.583135</v>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Velveeta vs Mac&amp;Cheese</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Hormel vs Annies</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Annies vs Velveeta</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>Annies</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Velveeta vs Annies</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>AB-2col</t>
@@ -1129,17 +1129,19 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Velveeta, Annie’s Shells &amp; White Cheddar</t>
+          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr"/>
+          <t>Annie’s Shells &amp; White Cheddar</t>
+        </is>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.554</v>
+      </c>
       <c r="AH4" t="inlineStr">
         <is>
           <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
@@ -1151,14 +1153,14 @@
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
-        <v>16.788498</v>
+        <v>10.301054</v>
       </c>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>{"Velveeta_pack": [0.0, 0.0, 0.5, 0.6], "Velveeta_claim": [0.0, 0.6, 0.5, 1.0], "Annie’s Shells &amp; White Cheddar_pack": [0.5, 0.0, 1.0, 0.6], "Annie’s Shells &amp; White Cheddar_claim": [0.5, 0.6, 1.0, 1.0]}</t>
+          <t>{"Annie’s Shells &amp; White Cheddar_pack": [0.0, 0.0, 0.5, 0.6], "Annie’s Shells &amp; White Cheddar_claim": [0.0, 0.6, 0.5, 1.0], "Velveeta_pack": [0.5, 0.0, 1.0, 0.6], "Velveeta_claim": [0.5, 0.6, 1.0, 1.0]}</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr"/>
@@ -1190,7 +1192,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nongshim Neoguri Spicy Seafood, Nongshim Shin Ramyun, Nissin Chow Mein Teriyaki Beef, Maruchan</t>
+          <t>Nongshim Shin Ramyun, Maruchan, Nongshim Neoguri Spicy Seafood, Nissin Chow Mein Teriyaki Beef</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1199,53 +1201,53 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>20.757866</v>
+        <v>21.913143</v>
       </c>
       <c r="H5" t="n">
-        <v>22.405703</v>
+        <v>23.494237</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-12-01T18:18:32.274301</t>
+          <t>2025-12-01T18:21:24.611908</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1764613112.274301</v>
+        <v>1764613284.611908</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-12-01T18:18:53.032167</t>
+          <t>2025-12-01T18:21:46.525051</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1764613133.032167</v>
+        <v>1764613306.525051</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-12-01T18:18:54.680004</t>
+          <t>2025-12-01T18:21:48.106145</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1764613134.680004</v>
+        <v>1764613308.106145</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-12-01T18:17:41.160736</t>
+          <t>2025-12-01T18:20:52.530813</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-12-01T18:19:36.743871</t>
+          <t>2025-12-01T18:22:24.029919</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>1764613061.160736</v>
+        <v>1764613252.530813</v>
       </c>
       <c r="R5" t="n">
-        <v>1764613176.743871</v>
+        <v>1764613344.029919</v>
       </c>
       <c r="S5" t="n">
-        <v>115.583135</v>
+        <v>91.499106</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -1270,7 +1272,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Nongshim Neoguri Spicy Seafood, Nongshim Shin Ramyun, Nissin Chow Mein Teriyaki Beef, Maruchan</t>
+          <t>Nongshim Shin Ramyun, Maruchan, Nongshim Neoguri Spicy Seafood, Nissin Chow Mein Teriyaki Beef</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr"/>
@@ -1299,7 +1301,7 @@
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>{"Nongshim Neoguri Spicy Seafood_pack": [0.0, 0.0, 0.5, 0.4], "Nongshim Neoguri Spicy Seafood_claim": [0.0, 0.4, 0.5, 0.8], "Nongshim Shin Ramyun_pack": [0.5, 0.0, 1.0, 0.4], "Nongshim Shin Ramyun_claim": [0.5, 0.4, 1.0, 0.8], "Nissin Chow Mein Teriyaki Beef_pack": [0.0, 0.5, 0.5, 0.9], "Nissin Chow Mein Teriyaki Beef_claim": [0.0, 0.9, 0.5, 1.0], "Maruchan_pack": [0.5, 0.5, 1.0, 0.9], "Maruchan_claim": [0.5, 0.9, 1.0, 1.0]}</t>
+          <t>{"Nongshim Shin Ramyun_pack": [0.0, 0.0, 0.5, 0.4], "Nongshim Shin Ramyun_claim": [0.0, 0.4, 0.5, 0.8], "Maruchan_pack": [0.5, 0.0, 1.0, 0.4], "Maruchan_claim": [0.5, 0.4, 1.0, 0.8], "Nongshim Neoguri Spicy Seafood_pack": [0.0, 0.5, 0.5, 0.9], "Nongshim Neoguri Spicy Seafood_claim": [0.0, 0.9, 0.5, 1.0], "Nissin Chow Mein Teriyaki Beef_pack": [0.5, 0.5, 1.0, 0.9], "Nissin Chow Mein Teriyaki Beef_claim": [0.5, 0.9, 1.0, 1.0]}</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr"/>
@@ -1340,53 +1342,53 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>40.389108</v>
+        <v>34.360857</v>
       </c>
       <c r="H6" t="n">
-        <v>22.674121</v>
+        <v>25.843418</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-12-01T18:19:14.069618</t>
+          <t>2025-12-01T18:21:58.186366</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1764613154.069618</v>
+        <v>1764613318.186366</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-12-01T18:19:35.172510</t>
+          <t>2025-12-01T18:22:22.550163</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1764613175.17251</v>
+        <v>1764613342.550163</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2025-12-01T18:19:36.743739</t>
+          <t>2025-12-01T18:22:24.029784</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1764613176.743739</v>
+        <v>1764613344.029784</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-12-01T18:17:41.160736</t>
+          <t>2025-12-01T18:20:52.530813</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2025-12-01T18:19:36.743871</t>
+          <t>2025-12-01T18:22:24.029919</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>1764613061.160736</v>
+        <v>1764613252.530813</v>
       </c>
       <c r="R6" t="n">
-        <v>1764613176.743871</v>
+        <v>1764613344.029919</v>
       </c>
       <c r="S6" t="n">
-        <v>115.583135</v>
+        <v>91.499106</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -1443,23 +1445,23 @@
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 6.103, "JackLinks": 10.623, "RedKidneyBeansCurry": 12.059, "TunaPasta": 12.355}</t>
+          <t>{"ChickenSalad": 10.565, "JackLinks": 7.902, "RedKidneyBeansCurry": 12.081, "TunaPasta": 4.616}</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 1, "JackLinks": 3, "RedKidneyBeansCurry": 2, "TunaPasta": 3}</t>
+          <t>{"ChickenSalad": 1, "JackLinks": 3, "RedKidneyBeansCurry": 2, "TunaPasta": 2}</t>
         </is>
       </c>
       <c r="AS6" t="n">
         <v>3</v>
       </c>
       <c r="AT6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>[{"timestamp": "2025-12-01T18:18:54.784515", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:19:04.742485", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:19:04.742485", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:19:04.823852", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:19:13.943505", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:19:13.943505", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:19:14.069618", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:19:19.458469", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:19:19.458469", "event": "next", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:19:19.567629", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-01T18:19:25.670849", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-01T18:19:25.670849", "event": "prev", "image": "ChickenSalad"}, {"timestamp": "2025-12-01T18:19:25.770649", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:19:27.393624", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:19:27.393624", "event": "prev", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:19:27.509754", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:19:28.945708", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:19:28.945708", "event": "prev", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:19:29.041402", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:19:31.142727", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:19:31.142727", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:19:31.238148", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:19:33.037200", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:19:33.037200", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:19:33.132750", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:19:36.743739", "event": "finalize", "image": "JackLinks"}]</t>
+          <t>[{"timestamp": "2025-12-01T18:21:48.190498", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:21:58.088941", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:21:58.088941", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:21:58.186366", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:22:00.017166", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:22:00.017166", "event": "next", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:22:00.105783", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:22:02.039855", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:22:02.039855", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:22:02.120350", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-01T18:22:12.685475", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-01T18:22:12.685475", "event": "prev", "image": "ChickenSalad"}, {"timestamp": "2025-12-01T18:22:12.767614", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:22:15.449064", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:22:15.449064", "event": "prev", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:22:15.551334", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:22:18.888496", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:22:18.888496", "event": "prev", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:22:19.010788", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:22:21.193629", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:22:21.193629", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:22:21.295340", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:22:24.029784", "event": "finalize", "image": "JackLinks"}]</t>
         </is>
       </c>
     </row>

--- a/data_participantes/Salvador Vidal Torres_20251113_180607/experimento_Salvador Vidal Torres_20251113_180607.xlsx
+++ b/data_participantes/Salvador Vidal Torres_20251113_180607/experimento_Salvador Vidal Torres_20251113_180607.xlsx
@@ -693,93 +693,93 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kraft Macaroni &amp; Cheese Dinner, Annie’s Shells &amp; White Cheddar</t>
+          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar</t>
+          <t>Velveeta</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>12.74102</v>
+        <v>9.662246</v>
       </c>
       <c r="H2" t="n">
-        <v>12.74102</v>
+        <v>9.662246</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-12-01T18:20:52.629620</t>
+          <t>2025-12-02T10:48:48.270376</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1764613252.62962</v>
+        <v>1764672528.270376</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-12-01T18:21:05.370640</t>
+          <t>2025-12-02T10:48:57.932622</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1764613265.37064</v>
+        <v>1764672537.932622</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-12-01T18:21:05.370640</t>
+          <t>2025-12-02T10:48:57.932622</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1764613265.37064</v>
+        <v>1764672537.932622</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-12-01T18:20:52.530813</t>
+          <t>2025-12-02T10:48:48.178654</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-12-01T18:22:24.029919</t>
+          <t>2025-12-02T10:49:40.700165</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1764613252.530813</v>
+        <v>1764672528.178654</v>
       </c>
       <c r="R2" t="n">
-        <v>1764613344.029919</v>
+        <v>1764672580.700165</v>
       </c>
       <c r="S2" t="n">
-        <v>91.499106</v>
+        <v>52.521511</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Mac&amp;Cheese vs Annies</t>
+          <t>Annies vs Velveeta</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Annies</t>
+          <t>Velveeta</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Hormel vs Velveeta</t>
+          <t>Hormel vs Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
+          <t>Hormel</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Velveeta vs Hormel</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
           <t>Velveeta</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Annies vs Velveeta</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Annies</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
           <t>AB-2col</t>
@@ -797,19 +797,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Kraft Macaroni &amp; Cheese Dinner, Annie’s Shells &amp; White Cheddar</t>
+          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar</t>
-        </is>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.554</v>
-      </c>
+          <t>Velveeta</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr">
         <is>
           <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
@@ -819,7 +817,7 @@
         <v>0.632</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12.74102</v>
+        <v>9.662246</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
@@ -828,7 +826,7 @@
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>{"Kraft Macaroni &amp; Cheese Dinner_pack": [0.0, 0.0, 0.5, 0.6], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.0, 0.6, 0.5, 1.0], "Annie’s Shells &amp; White Cheddar_pack": [0.5, 0.0, 1.0, 0.6], "Annie’s Shells &amp; White Cheddar_claim": [0.5, 0.6, 1.0, 1.0]}</t>
+          <t>{"Annie’s Shells &amp; White Cheddar_pack": [0.0, 0.0, 0.4, 0.48], "Annie’s Shells &amp; White Cheddar_claim": [0.0, 0.6, 0.4, 0.8], "Velveeta_pack": [0.5, 0.0, 0.8, 0.48], "Velveeta_claim": [0.5, 0.6, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr"/>
@@ -860,93 +858,93 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen), Velveeta</t>
+          <t>Amy’s Macaroni &amp; Cheese (frozen), Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>4.922887</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.922887</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-12-02T10:48:57.932622</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1764672537.932622</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-12-02T10:49:02.855509</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1764672542.855509</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2025-12-02T10:49:02.855509</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>1764672542.855509</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2025-12-02T10:48:48.178654</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2025-12-02T10:49:40.700165</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>1764672528.178654</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1764672580.700165</v>
+      </c>
+      <c r="S3" t="n">
+        <v>52.521511</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Annies vs Velveeta</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>Velveeta</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>7.480187</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7.480187</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2025-12-01T18:21:05.370640</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1764613265.37064</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2025-12-01T18:21:12.850827</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1764613272.850827</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2025-12-01T18:21:12.850827</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>1764613272.850827</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2025-12-01T18:20:52.530813</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>2025-12-01T18:22:24.029919</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>1764613252.530813</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1764613344.029919</v>
-      </c>
-      <c r="S3" t="n">
-        <v>91.499106</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Mac&amp;Cheese vs Annies</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Annies</t>
-        </is>
-      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Hormel vs Velveeta</t>
+          <t>Hormel vs Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
+          <t>Hormel</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Velveeta vs Hormel</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>Velveeta</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Annies vs Velveeta</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Annies</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
           <t>AB-2col</t>
@@ -964,17 +962,19 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen), Velveeta</t>
+          <t>Amy’s Macaroni &amp; Cheese (frozen), Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr"/>
+          <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
+        </is>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.632</v>
+      </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
@@ -985,7 +985,7 @@
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="n">
-        <v>7.480187</v>
+        <v>4.922887</v>
       </c>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
@@ -993,7 +993,7 @@
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>{"Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.0, 0.0, 0.5, 0.6], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.0, 0.6, 0.5, 1.0], "Velveeta_pack": [0.5, 0.0, 1.0, 0.6], "Velveeta_claim": [0.5, 0.6, 1.0, 1.0]}</t>
+          <t>{"Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.0, 0.0, 0.4, 0.48], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.0, 0.6, 0.4, 0.8], "Kraft Macaroni &amp; Cheese Dinner_pack": [0.5, 0.0, 0.8, 0.48], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.5, 0.6, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr"/>
@@ -1025,93 +1025,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
+          <t>Velveeta, Amy’s Macaroni &amp; Cheese (frozen)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar</t>
+          <t>Velveeta</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>10.301054</v>
+        <v>5.185299</v>
       </c>
       <c r="H4" t="n">
-        <v>10.301054</v>
+        <v>5.185299</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-12-01T18:21:12.850827</t>
+          <t>2025-12-02T10:49:02.855509</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1764613272.850827</v>
+        <v>1764672542.855509</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-12-01T18:21:23.151881</t>
+          <t>2025-12-02T10:49:08.040808</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1764613283.151881</v>
+        <v>1764672548.040808</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2025-12-01T18:21:23.151881</t>
+          <t>2025-12-02T10:49:08.040808</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1764613283.151881</v>
+        <v>1764672548.040808</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-12-01T18:20:52.530813</t>
+          <t>2025-12-02T10:48:48.178654</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-12-01T18:22:24.029919</t>
+          <t>2025-12-02T10:49:40.700165</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1764613252.530813</v>
+        <v>1764672528.178654</v>
       </c>
       <c r="R4" t="n">
-        <v>1764613344.029919</v>
+        <v>1764672580.700165</v>
       </c>
       <c r="S4" t="n">
-        <v>91.499106</v>
+        <v>52.521511</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Mac&amp;Cheese vs Annies</t>
+          <t>Annies vs Velveeta</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Annies</t>
+          <t>Velveeta</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Hormel vs Velveeta</t>
+          <t>Hormel vs Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
+          <t>Hormel</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Velveeta vs Hormel</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
           <t>Velveeta</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Annies vs Velveeta</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Annies</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>AB-2col</t>
@@ -1129,19 +1129,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
+          <t>Velveeta, Amy’s Macaroni &amp; Cheese (frozen)</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar</t>
-        </is>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.554</v>
-      </c>
+          <t>Velveeta</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr">
         <is>
           <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
@@ -1153,14 +1151,14 @@
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
-        <v>10.301054</v>
+        <v>5.185299</v>
       </c>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>{"Annie’s Shells &amp; White Cheddar_pack": [0.0, 0.0, 0.5, 0.6], "Annie’s Shells &amp; White Cheddar_claim": [0.0, 0.6, 0.5, 1.0], "Velveeta_pack": [0.5, 0.0, 1.0, 0.6], "Velveeta_claim": [0.5, 0.6, 1.0, 1.0]}</t>
+          <t>{"Velveeta_pack": [0.0, 0.0, 0.4, 0.48], "Velveeta_claim": [0.0, 0.6, 0.4, 0.8], "Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.5, 0.0, 0.8, 0.48], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.5, 0.6, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr"/>
@@ -1192,7 +1190,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nongshim Shin Ramyun, Maruchan, Nongshim Neoguri Spicy Seafood, Nissin Chow Mein Teriyaki Beef</t>
+          <t>Nissin Chow Mein Teriyaki Beef, Nongshim Shin Ramyun, Nongshim Neoguri Spicy Seafood, Maruchan</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1201,53 +1199,53 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>21.913143</v>
+        <v>9.642818999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>23.494237</v>
+        <v>9.757873999999999</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-12-01T18:21:24.611908</t>
+          <t>2025-12-02T10:49:08.238740</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1764613284.611908</v>
+        <v>1764672548.23874</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-12-01T18:21:46.525051</t>
+          <t>2025-12-02T10:49:17.881559</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1764613306.525051</v>
+        <v>1764672557.881559</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-12-01T18:21:48.106145</t>
+          <t>2025-12-02T10:49:17.996614</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1764613308.106145</v>
+        <v>1764672557.996614</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-12-01T18:20:52.530813</t>
+          <t>2025-12-02T10:48:48.178654</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-12-01T18:22:24.029919</t>
+          <t>2025-12-02T10:49:40.700165</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>1764613252.530813</v>
+        <v>1764672528.178654</v>
       </c>
       <c r="R5" t="n">
-        <v>1764613344.029919</v>
+        <v>1764672580.700165</v>
       </c>
       <c r="S5" t="n">
-        <v>91.499106</v>
+        <v>52.521511</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -1272,7 +1270,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Nongshim Shin Ramyun, Maruchan, Nongshim Neoguri Spicy Seafood, Nissin Chow Mein Teriyaki Beef</t>
+          <t>Nissin Chow Mein Teriyaki Beef, Nongshim Shin Ramyun, Nongshim Neoguri Spicy Seafood, Maruchan</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr"/>
@@ -1301,7 +1299,7 @@
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>{"Nongshim Shin Ramyun_pack": [0.0, 0.0, 0.5, 0.4], "Nongshim Shin Ramyun_claim": [0.0, 0.4, 0.5, 0.8], "Maruchan_pack": [0.5, 0.0, 1.0, 0.4], "Maruchan_claim": [0.5, 0.4, 1.0, 0.8], "Nongshim Neoguri Spicy Seafood_pack": [0.0, 0.5, 0.5, 0.9], "Nongshim Neoguri Spicy Seafood_claim": [0.0, 0.9, 0.5, 1.0], "Nissin Chow Mein Teriyaki Beef_pack": [0.5, 0.5, 1.0, 0.9], "Nissin Chow Mein Teriyaki Beef_claim": [0.5, 0.9, 1.0, 1.0]}</t>
+          <t>{"Nissin Chow Mein Teriyaki Beef_pack": [0.0, 0.0, 0.4, 0.32000000000000006], "Nissin Chow Mein Teriyaki Beef_claim": [0.0, 0.4, 0.4, 0.6400000000000001], "Nongshim Shin Ramyun_pack": [0.5, 0.0, 0.8, 0.32000000000000006], "Nongshim Shin Ramyun_claim": [0.5, 0.4, 0.8, 0.6400000000000001], "Nongshim Neoguri Spicy Seafood_pack": [0.0, 0.5, 0.4, 0.7200000000000001], "Nongshim Neoguri Spicy Seafood_claim": [0.0, 0.9, 0.4, 0.8], "Maruchan_pack": [0.5, 0.5, 0.8, 0.7200000000000001], "Maruchan_claim": [0.5, 0.9, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr"/>
@@ -1342,53 +1340,53 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>34.360857</v>
+        <v>21.506889</v>
       </c>
       <c r="H6" t="n">
-        <v>25.843418</v>
+        <v>13.074922</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-12-01T18:21:58.186366</t>
+          <t>2025-12-02T10:49:27.625101</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1764613318.186366</v>
+        <v>1764672567.625101</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-12-01T18:22:22.550163</t>
+          <t>2025-12-02T10:49:39.603433</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1764613342.550163</v>
+        <v>1764672579.603433</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2025-12-01T18:22:24.029784</t>
+          <t>2025-12-02T10:49:40.700023</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1764613344.029784</v>
+        <v>1764672580.700023</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-12-01T18:20:52.530813</t>
+          <t>2025-12-02T10:48:48.178654</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2025-12-01T18:22:24.029919</t>
+          <t>2025-12-02T10:49:40.700165</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>1764613252.530813</v>
+        <v>1764672528.178654</v>
       </c>
       <c r="R6" t="n">
-        <v>1764613344.029919</v>
+        <v>1764672580.700165</v>
       </c>
       <c r="S6" t="n">
-        <v>91.499106</v>
+        <v>52.521511</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -1440,28 +1438,28 @@
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>{"Seq-1": {"JackLinks_pack": [0.2, 0.0, 0.8, 0.7], "JackLinks_claim": [0.8, 0.0, 1.0, 1.0], "JackLinks_nutri": [0.0, 0.0, 0.2, 1.0]}}</t>
+          <t>{"Seq-1": {"JackLinks_pack": [0.2, 0.0, 0.6400000000000001, 0.5599999999999999], "JackLinks_claim": [0.8, 0.0, 0.8, 0.8], "JackLinks_nutri": [0.0, 0.0, 0.16000000000000003, 0.8]}}</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 10.565, "JackLinks": 7.902, "RedKidneyBeansCurry": 12.081, "TunaPasta": 4.616}</t>
+          <t>{"ChickenSalad": 5.973, "JackLinks": 5.301, "RedKidneyBeansCurry": 3.67, "TunaPasta": 6.927}</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 1, "JackLinks": 3, "RedKidneyBeansCurry": 2, "TunaPasta": 2}</t>
+          <t>{"ChickenSalad": 2, "JackLinks": 2, "RedKidneyBeansCurry": 3, "TunaPasta": 3}</t>
         </is>
       </c>
       <c r="AS6" t="n">
         <v>3</v>
       </c>
       <c r="AT6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>[{"timestamp": "2025-12-01T18:21:48.190498", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:21:58.088941", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:21:58.088941", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:21:58.186366", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:22:00.017166", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:22:00.017166", "event": "next", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:22:00.105783", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:22:02.039855", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:22:02.039855", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:22:02.120350", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-01T18:22:12.685475", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-01T18:22:12.685475", "event": "prev", "image": "ChickenSalad"}, {"timestamp": "2025-12-01T18:22:12.767614", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:22:15.449064", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:22:15.449064", "event": "prev", "image": "TunaPasta"}, {"timestamp": "2025-12-01T18:22:15.551334", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:22:18.888496", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:22:18.888496", "event": "prev", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:22:19.010788", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:22:21.193629", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:22:21.193629", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-01T18:22:21.295340", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-01T18:22:24.029784", "event": "finalize", "image": "JackLinks"}]</t>
+          <t>[{"timestamp": "2025-12-02T10:49:18.097907", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T10:49:21.439759", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T10:49:21.439759", "event": "next", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T10:49:21.514881", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:49:23.389050", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:49:23.389050", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:49:23.467110", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:49:27.536415", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:49:27.536415", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:49:27.625101", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-02T10:49:30.563148", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-12-02T10:49:30.563148", "event": "prev", "image": "JackLinks"}, {"timestamp": "2025-12-02T10:49:30.642621", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:49:31.695116", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:49:31.695116", "event": "prev", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:49:31.779750", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:49:32.828429", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:49:32.828429", "event": "prev", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:49:32.915177", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T10:49:35.546232", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T10:49:35.546232", "event": "next", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T10:49:35.627036", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:49:36.374275", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:49:36.374275", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:49:36.447339", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:49:38.252655", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:49:38.252655", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:49:38.337477", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-02T10:49:40.700023", "event": "finalize", "image": "JackLinks"}]</t>
         </is>
       </c>
     </row>

--- a/data_participantes/Salvador Vidal Torres_20251113_180607/experimento_Salvador Vidal Torres_20251113_180607.xlsx
+++ b/data_participantes/Salvador Vidal Torres_20251113_180607/experimento_Salvador Vidal Torres_20251113_180607.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sin SmartScore</t>
+          <t>Con SmartScore</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -693,93 +693,93 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
+          <t>Amy’s Macaroni &amp; Cheese (frozen), Annie’s Shells &amp; White Cheddar</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Annie’s Shells &amp; White Cheddar</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>57.501223</v>
+      </c>
+      <c r="H2" t="n">
+        <v>57.501223</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-12-03T17:16:21.014524</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1764782181.014524</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-12-03T17:17:18.515747</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>1764782238.515747</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2025-12-03T17:17:18.515747</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>1764782238.515747</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2025-12-03T17:16:20.920787</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2025-12-03T18:28:15.615451</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>1764782180.920787</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1764786495.615451</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4314.694664</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Hormel vs Annies</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Annies</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Mac&amp;Cheese vs Velveeta</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
           <t>Velveeta</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>9.662246</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9.662246</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2025-12-02T10:48:48.270376</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1764672528.270376</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2025-12-02T10:48:57.932622</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>1764672537.932622</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2025-12-02T10:48:57.932622</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>1764672537.932622</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2025-12-02T10:48:48.178654</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>2025-12-02T10:49:40.700165</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v>1764672528.178654</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1764672580.700165</v>
-      </c>
-      <c r="S2" t="n">
-        <v>52.521511</v>
-      </c>
-      <c r="T2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>Annies vs Velveeta</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>Velveeta</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Hormel vs Mac&amp;Cheese</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Hormel</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Velveeta vs Hormel</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
           <t>AB-2col</t>
@@ -797,17 +797,19 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
+          <t>Amy’s Macaroni &amp; Cheese (frozen), Annie’s Shells &amp; White Cheddar</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr"/>
+          <t>Annie’s Shells &amp; White Cheddar</t>
+        </is>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.554</v>
+      </c>
       <c r="AH2" t="inlineStr">
         <is>
           <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
@@ -817,16 +819,20 @@
         <v>0.632</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.662246</v>
+        <v>57.501223</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>{"Annie’s Shells &amp; White Cheddar_pack": [0.0, 0.0, 0.4, 0.48], "Annie’s Shells &amp; White Cheddar_claim": [0.0, 0.6, 0.4, 0.8], "Velveeta_pack": [0.5, 0.0, 0.8, 0.48], "Velveeta_claim": [0.5, 0.6, 0.8, 0.8]}</t>
+          <t>{"Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.0, 0.0, 0.4, 0.48], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.0, 0.6, 0.4, 0.8], "Amy’s Macaroni &amp; Cheese (frozen)_smartcore": [0.2, 0.9, 0.24, 0.8], "Annie’s Shells &amp; White Cheddar_pack": [0.5, 0.0, 0.8, 0.48], "Annie’s Shells &amp; White Cheddar_claim": [0.5, 0.6, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr"/>
@@ -848,7 +854,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sin SmartScore</t>
+          <t>Con SmartScore</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -858,93 +864,93 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen), Kraft Macaroni &amp; Cheese Dinner</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner, Velveeta</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
+          <t>Velveeta</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.922887</v>
+        <v>1.431325</v>
       </c>
       <c r="H3" t="n">
-        <v>4.922887</v>
+        <v>1.431325</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-12-02T10:48:57.932622</t>
+          <t>2025-12-03T17:17:18.515747</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1764672537.932622</v>
+        <v>1764782238.515747</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-12-02T10:49:02.855509</t>
+          <t>2025-12-03T17:17:19.947072</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1764672542.855509</v>
+        <v>1764782239.947072</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2025-12-02T10:49:02.855509</t>
+          <t>2025-12-03T17:17:19.947072</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1764672542.855509</v>
+        <v>1764782239.947072</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-12-02T10:48:48.178654</t>
+          <t>2025-12-03T17:16:20.920787</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-12-02T10:49:40.700165</t>
+          <t>2025-12-03T18:28:15.615451</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1764672528.178654</v>
+        <v>1764782180.920787</v>
       </c>
       <c r="R3" t="n">
-        <v>1764672580.700165</v>
+        <v>1764786495.615451</v>
       </c>
       <c r="S3" t="n">
-        <v>52.521511</v>
+        <v>4314.694664</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>Hormel vs Annies</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Annies</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Mac&amp;Cheese vs Velveeta</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Velveeta</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
           <t>Annies vs Velveeta</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>Velveeta</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Hormel vs Mac&amp;Cheese</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Hormel</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Velveeta vs Hormel</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
           <t>AB-2col</t>
@@ -962,19 +968,17 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen), Kraft Macaroni &amp; Cheese Dinner</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner, Velveeta</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
-        </is>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.632</v>
-      </c>
+          <t>Velveeta</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
@@ -985,7 +989,7 @@
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="n">
-        <v>4.922887</v>
+        <v>1.431325</v>
       </c>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
@@ -993,7 +997,7 @@
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>{"Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.0, 0.0, 0.4, 0.48], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.0, 0.6, 0.4, 0.8], "Kraft Macaroni &amp; Cheese Dinner_pack": [0.5, 0.0, 0.8, 0.48], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.5, 0.6, 0.8, 0.8]}</t>
+          <t>{"Kraft Macaroni &amp; Cheese Dinner_pack": [0.0, 0.0, 0.4, 0.48], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.0, 0.6, 0.4, 0.8], "Velveeta_pack": [0.5, 0.0, 0.8, 0.48], "Velveeta_claim": [0.5, 0.6, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr"/>
@@ -1015,7 +1019,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sin SmartScore</t>
+          <t>Con SmartScore</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1025,7 +1029,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Velveeta, Amy’s Macaroni &amp; Cheese (frozen)</t>
+          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1034,84 +1038,84 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.185299</v>
+        <v>9.899628</v>
       </c>
       <c r="H4" t="n">
-        <v>5.185299</v>
+        <v>9.899628</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-12-02T10:49:02.855509</t>
+          <t>2025-12-03T17:17:19.947072</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1764672542.855509</v>
+        <v>1764782239.947072</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-12-02T10:49:08.040808</t>
+          <t>2025-12-03T17:17:29.846700</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1764672548.040808</v>
+        <v>1764782249.8467</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2025-12-02T10:49:08.040808</t>
+          <t>2025-12-03T17:17:29.846700</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1764672548.040808</v>
+        <v>1764782249.8467</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-12-02T10:48:48.178654</t>
+          <t>2025-12-03T17:16:20.920787</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-12-02T10:49:40.700165</t>
+          <t>2025-12-03T18:28:15.615451</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1764672528.178654</v>
+        <v>1764782180.920787</v>
       </c>
       <c r="R4" t="n">
-        <v>1764672580.700165</v>
+        <v>1764786495.615451</v>
       </c>
       <c r="S4" t="n">
-        <v>52.521511</v>
+        <v>4314.694664</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>Hormel vs Annies</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Annies</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Mac&amp;Cheese vs Velveeta</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Velveeta</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
           <t>Annies vs Velveeta</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>Velveeta</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Hormel vs Mac&amp;Cheese</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Hormel</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Velveeta vs Hormel</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>AB-2col</t>
@@ -1129,7 +1133,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Velveeta, Amy’s Macaroni &amp; Cheese (frozen)</t>
+          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr"/>
@@ -1151,14 +1155,14 @@
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
-        <v>5.185299</v>
+        <v>9.899628</v>
       </c>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>{"Velveeta_pack": [0.0, 0.0, 0.4, 0.48], "Velveeta_claim": [0.0, 0.6, 0.4, 0.8], "Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.5, 0.0, 0.8, 0.48], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.5, 0.6, 0.8, 0.8]}</t>
+          <t>{"Annie’s Shells &amp; White Cheddar_pack": [0.0, 0.0, 0.4, 0.48], "Annie’s Shells &amp; White Cheddar_claim": [0.0, 0.6, 0.4, 0.8], "Velveeta_pack": [0.5, 0.0, 0.8, 0.48], "Velveeta_claim": [0.5, 0.6, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr"/>
@@ -1180,7 +1184,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sin SmartScore</t>
+          <t>Con SmartScore</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1190,7 +1194,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nissin Chow Mein Teriyaki Beef, Nongshim Shin Ramyun, Nongshim Neoguri Spicy Seafood, Maruchan</t>
+          <t>Nissin Chow Mein Teriyaki Beef, Maruchan, Nongshim Neoguri Spicy Seafood, Nongshim Shin Ramyun</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1199,53 +1203,53 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>9.642818999999999</v>
+        <v>41.484674</v>
       </c>
       <c r="H5" t="n">
-        <v>9.757873999999999</v>
+        <v>41.582358</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-12-02T10:49:08.238740</t>
+          <t>2025-12-03T17:17:30.051956</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1764672548.23874</v>
+        <v>1764782250.051956</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-12-02T10:49:17.881559</t>
+          <t>2025-12-03T17:18:11.536630</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1764672557.881559</v>
+        <v>1764782291.53663</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-12-02T10:49:17.996614</t>
+          <t>2025-12-03T17:18:11.634314</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1764672557.996614</v>
+        <v>1764782291.634314</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-12-02T10:48:48.178654</t>
+          <t>2025-12-03T17:16:20.920787</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-12-02T10:49:40.700165</t>
+          <t>2025-12-03T18:28:15.615451</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>1764672528.178654</v>
+        <v>1764782180.920787</v>
       </c>
       <c r="R5" t="n">
-        <v>1764672580.700165</v>
+        <v>1764786495.615451</v>
       </c>
       <c r="S5" t="n">
-        <v>52.521511</v>
+        <v>4314.694664</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -1270,7 +1274,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Nissin Chow Mein Teriyaki Beef, Nongshim Shin Ramyun, Nongshim Neoguri Spicy Seafood, Maruchan</t>
+          <t>Nissin Chow Mein Teriyaki Beef, Maruchan, Nongshim Neoguri Spicy Seafood, Nongshim Shin Ramyun</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr"/>
@@ -1294,12 +1298,16 @@
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>{"Nissin Chow Mein Teriyaki Beef_pack": [0.0, 0.0, 0.4, 0.32000000000000006], "Nissin Chow Mein Teriyaki Beef_claim": [0.0, 0.4, 0.4, 0.6400000000000001], "Nongshim Shin Ramyun_pack": [0.5, 0.0, 0.8, 0.32000000000000006], "Nongshim Shin Ramyun_claim": [0.5, 0.4, 0.8, 0.6400000000000001], "Nongshim Neoguri Spicy Seafood_pack": [0.0, 0.5, 0.4, 0.7200000000000001], "Nongshim Neoguri Spicy Seafood_claim": [0.0, 0.9, 0.4, 0.8], "Maruchan_pack": [0.5, 0.5, 0.8, 0.7200000000000001], "Maruchan_claim": [0.5, 0.9, 0.8, 0.8]}</t>
+          <t>{"Nissin Chow Mein Teriyaki Beef_pack": [0.0, 0.0, 0.4, 0.32000000000000006], "Nissin Chow Mein Teriyaki Beef_claim": [0.0, 0.4, 0.4, 0.6400000000000001], "Maruchan_pack": [0.5, 0.0, 0.8, 0.32000000000000006], "Maruchan_claim": [0.5, 0.4, 0.8, 0.6400000000000001], "Nongshim Neoguri Spicy Seafood_pack": [0.0, 0.5, 0.4, 0.7200000000000001], "Nongshim Neoguri Spicy Seafood_claim": [0.0, 0.9, 0.4, 0.8], "Nongshim Neoguri Spicy Seafood_smartcore": [0.2, 0.95, 0.24, 0.8], "Nongshim Shin Ramyun_pack": [0.5, 0.5, 0.8, 0.7200000000000001], "Nongshim Shin Ramyun_claim": [0.5, 0.9, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr"/>
@@ -1321,7 +1329,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sin SmartScore</t>
+          <t>Con SmartScore</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1331,62 +1339,62 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>JackLinks</t>
+          <t>Wild Planet Wild Tuna Pasta Salad</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>JackLinks</t>
+          <t>Wild Planet Wild Tuna Pasta Salad</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>21.506889</v>
+        <v>5.755305</v>
       </c>
       <c r="H6" t="n">
-        <v>13.074922</v>
+        <v>4200.161736</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-12-02T10:49:27.625101</t>
+          <t>2025-12-03T17:18:15.453559</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1764672567.625101</v>
+        <v>1764782295.453559</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-12-02T10:49:39.603433</t>
+          <t>2025-12-03T17:18:17.479713</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1764672579.603433</v>
+        <v>1764782297.479713</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2025-12-02T10:49:40.700023</t>
+          <t>2025-12-03T18:28:15.615295</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1764672580.700023</v>
+        <v>1764786495.615295</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-12-02T10:48:48.178654</t>
+          <t>2025-12-03T17:16:20.920787</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2025-12-02T10:49:40.700165</t>
+          <t>2025-12-03T18:28:15.615451</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>1764672528.178654</v>
+        <v>1764782180.920787</v>
       </c>
       <c r="R6" t="n">
-        <v>1764672580.700165</v>
+        <v>1764786495.615451</v>
       </c>
       <c r="S6" t="n">
-        <v>52.521511</v>
+        <v>4314.694664</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -1411,17 +1419,19 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>JackLinks</t>
+          <t>Wild Planet Wild Tuna Pasta Salad</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>JackLinks</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr"/>
+          <t>Wild Planet Wild Tuna Pasta Salad</t>
+        </is>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.678</v>
+      </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t>Wild Planet Wild Tuna Pasta Salad</t>
@@ -1433,33 +1443,37 @@
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>{"Seq-1": {"JackLinks_pack": [0.2, 0.0, 0.6400000000000001, 0.5599999999999999], "JackLinks_claim": [0.8, 0.0, 0.8, 0.8], "JackLinks_nutri": [0.0, 0.0, 0.16000000000000003, 0.8]}}</t>
+          <t>{"Seq-1": {"Wild Planet Wild Tuna Pasta Salad_pack": [0.2, 0.0, 0.6400000000000001, 0.5599999999999999], "Wild Planet Wild Tuna Pasta Salad_claim": [0.8, 0.0, 0.8, 0.8], "Wild Planet Wild Tuna Pasta Salad_nutri": [0.0, 0.0, 0.16000000000000003, 0.8], "Wild Planet Wild Tuna Pasta Salad_smartcore": [0.4, 0.8, 0.48, 0.76]}}</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 5.973, "JackLinks": 5.301, "RedKidneyBeansCurry": 3.67, "TunaPasta": 6.927}</t>
+          <t>{"ChickenSalad": 2.302, "JackLinks": 1.234, "TunaPasta": 4200.162}</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 2, "JackLinks": 2, "RedKidneyBeansCurry": 3, "TunaPasta": 3}</t>
+          <t>{"ChickenSalad": 1, "JackLinks": 1, "TunaPasta": 1}</t>
         </is>
       </c>
       <c r="AS6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>[{"timestamp": "2025-12-02T10:49:18.097907", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T10:49:21.439759", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T10:49:21.439759", "event": "next", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T10:49:21.514881", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:49:23.389050", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:49:23.389050", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:49:23.467110", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:49:27.536415", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:49:27.536415", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:49:27.625101", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-02T10:49:30.563148", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-12-02T10:49:30.563148", "event": "prev", "image": "JackLinks"}, {"timestamp": "2025-12-02T10:49:30.642621", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:49:31.695116", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:49:31.695116", "event": "prev", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:49:31.779750", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:49:32.828429", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:49:32.828429", "event": "prev", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:49:32.915177", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T10:49:35.546232", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T10:49:35.546232", "event": "next", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T10:49:35.627036", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:49:36.374275", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:49:36.374275", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:49:36.447339", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:49:38.252655", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:49:38.252655", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:49:38.337477", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-02T10:49:40.700023", "event": "finalize", "image": "JackLinks"}]</t>
+          <t>[{"timestamp": "2025-12-03T17:18:11.725614", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-03T17:18:14.028051", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-03T17:18:14.028051", "event": "next", "image": "ChickenSalad"}, {"timestamp": "2025-12-03T17:18:14.120149", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-03T17:18:15.354443", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-12-03T17:18:15.354443", "event": "next", "image": "JackLinks"}, {"timestamp": "2025-12-03T17:18:15.453559", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-03T18:28:15.615295", "event": "finalize", "image": "TunaPasta"}]</t>
         </is>
       </c>
     </row>
